--- a/Swag Lab Manual Test cases.xlsx
+++ b/Swag Lab Manual Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanket umergi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92574EC4-BB83-4328-A6E8-1A1B74139C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E245F-8B06-4234-A8C0-13B7DDC004D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B749B7B5-7BF2-494E-8574-61FB89341974}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +417,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -488,6 +495,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490A8E2E-AB7E-4C17-B088-29DF1C861ACD}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,28 +1316,28 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
